--- a/scripts_iniciais/lista_de_espera.xlsx
+++ b/scripts_iniciais/lista_de_espera.xlsx
@@ -25,10 +25,10 @@
     <t>Nascimento</t>
   </si>
   <si>
-    <t>Ana Beatriz Silva</t>
-  </si>
-  <si>
-    <t>111.222.333-44</t>
+    <t>Arthur Torres de Lucena</t>
+  </si>
+  <si>
+    <t>128.110.714-07</t>
   </si>
   <si>
     <t>(11) 99876-5432</t>
